--- a/kerangka berpikir.xlsx
+++ b/kerangka berpikir.xlsx
@@ -40,9 +40,6 @@
   </si>
   <si>
     <t>Pendekatan</t>
-  </si>
-  <si>
-    <t>Diadakannya observasi dan wawancara untuk menganalisa dan mengumpulkan data pada permasalahan yang dihadapi oleh perusahaan PT. Fajar Pangan Lestari untuk perancangan agar dapat mengelola aktivitas keuangan untuk dijadikan laporan buku besar dengan cepat dan minimnya kesalahan pencatatan.</t>
   </si>
   <si>
     <t>Kurangnya efisiensi waktu dalam bekerja menggunakan pencatatan buku besar manual.</t>
@@ -104,6 +101,9 @@
   </si>
   <si>
     <t>2.</t>
+  </si>
+  <si>
+    <t>Diadakannya observasi dan pemahaman mengenai teori akuntansi untuk memperkuat solusi dari permasalahan yang ada pada perusahaan PT. Fajar Pangan Lestari  agar dapat mengelola aktivitas keuangan untuk dijadikan laporan buku besar dengan cepat dan minimnya kesalahan pencatatan.</t>
   </si>
 </sst>
 </file>
@@ -219,38 +219,38 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -777,7 +777,7 @@
   <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="B17" sqref="A1:B17"/>
+      <selection activeCell="A7" sqref="A7:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -788,13 +788,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
+      <c r="B1" s="9"/>
     </row>
     <row r="2" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -802,109 +802,109 @@
       </c>
     </row>
     <row r="3" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="13"/>
+      <c r="B5" s="13"/>
+    </row>
+    <row r="6" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="9"/>
+    </row>
+    <row r="7" spans="1:2" ht="93.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="12"/>
+    </row>
+    <row r="8" spans="1:2" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
+    </row>
+    <row r="9" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="10"/>
-      <c r="B5" s="10"/>
-    </row>
-    <row r="6" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="3"/>
-    </row>
-    <row r="7" spans="1:2" ht="93.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="8"/>
-    </row>
-    <row r="8" spans="1:2" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="9"/>
-      <c r="B8" s="9"/>
-    </row>
-    <row r="9" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="B9" s="9"/>
+    </row>
+    <row r="10" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="3"/>
-    </row>
-    <row r="10" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
+      <c r="B10" s="6"/>
+    </row>
+    <row r="11" spans="1:2" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
+    </row>
+    <row r="12" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="12"/>
-    </row>
-    <row r="11" spans="1:2" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="9"/>
-      <c r="B11" s="9"/>
-    </row>
-    <row r="12" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+      <c r="B12" s="9"/>
+    </row>
+    <row r="13" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="3"/>
-    </row>
-    <row r="13" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+      <c r="B13" s="9"/>
+    </row>
+    <row r="14" spans="1:2" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="10"/>
+      <c r="B14" s="10"/>
+    </row>
+    <row r="15" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="3"/>
-    </row>
-    <row r="14" spans="1:2" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-    </row>
-    <row r="15" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+      <c r="B15" s="9"/>
+    </row>
+    <row r="16" spans="1:2" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" s="5" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="3"/>
-    </row>
-    <row r="16" spans="1:2" s="11" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A16" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" s="11" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    </row>
+    <row r="18" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/kerangka berpikir.xlsx
+++ b/kerangka berpikir.xlsx
@@ -24,12 +24,6 @@
     <t>Masalah</t>
   </si>
   <si>
-    <t xml:space="preserve">Dibutuhkan sistem yang terkomputerisasi untuk memproses data menjadi laporan buku besar. </t>
-  </si>
-  <si>
-    <t>Proses pencatatan manual atau tulis tangan kurang efektif dan masih banyak kemungkinan kesalahan pencatatan pada perusahaan PT. Fajar Pangan Lestari.</t>
-  </si>
-  <si>
     <t xml:space="preserve">1. </t>
   </si>
   <si>
@@ -40,9 +34,6 @@
   </si>
   <si>
     <t>Pendekatan</t>
-  </si>
-  <si>
-    <t>Kurangnya efisiensi waktu dalam bekerja menggunakan pencatatan buku besar manual.</t>
   </si>
   <si>
     <t>Pengembangan</t>
@@ -104,6 +95,15 @@
   </si>
   <si>
     <t>Diadakannya observasi dan pemahaman mengenai teori akuntansi untuk memperkuat solusi dari permasalahan yang ada pada perusahaan PT. Fajar Pangan Lestari  agar dapat mengelola aktivitas keuangan untuk dijadikan laporan buku besar dengan cepat dan minimnya kesalahan pencatatan.</t>
+  </si>
+  <si>
+    <t>Akun rekening yang tidak detail (umum) untuk digunakan pada sebuah transaksi.</t>
+  </si>
+  <si>
+    <t>Kurangnya efisiensi waktu dalam membuat sebuah laporan kas harian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Banyaknya kesalahan pada pengelompokan debit dan kredit. </t>
   </si>
 </sst>
 </file>
@@ -234,22 +234,22 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -777,7 +777,7 @@
   <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:B7"/>
+      <selection activeCell="A5" sqref="A5:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -788,123 +788,123 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-    </row>
-    <row r="2" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="B1" s="8"/>
+    </row>
+    <row r="2" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="12"/>
+      <c r="B5" s="12"/>
+    </row>
+    <row r="6" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="B6" s="8"/>
+    </row>
+    <row r="7" spans="1:2" ht="93.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="10"/>
+    </row>
+    <row r="8" spans="1:2" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="11"/>
+      <c r="B8" s="11"/>
+    </row>
+    <row r="9" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="13"/>
-      <c r="B5" s="13"/>
-    </row>
-    <row r="6" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="9"/>
-    </row>
-    <row r="7" spans="1:2" ht="93.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="12"/>
-    </row>
-    <row r="8" spans="1:2" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8"/>
-    </row>
-    <row r="9" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="9"/>
+      <c r="B9" s="8"/>
     </row>
     <row r="10" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="6"/>
+    </row>
+    <row r="11" spans="1:2" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="11"/>
+      <c r="B11" s="11"/>
+    </row>
+    <row r="12" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="8"/>
+    </row>
+    <row r="13" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="8"/>
+    </row>
+    <row r="14" spans="1:2" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="13"/>
+      <c r="B14" s="13"/>
+    </row>
+    <row r="15" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="6"/>
-    </row>
-    <row r="11" spans="1:2" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="8"/>
-      <c r="B11" s="8"/>
-    </row>
-    <row r="12" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="9"/>
-    </row>
-    <row r="13" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="9"/>
-    </row>
-    <row r="14" spans="1:2" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="10"/>
-      <c r="B14" s="10"/>
-    </row>
-    <row r="15" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" s="9"/>
+      <c r="B15" s="8"/>
     </row>
     <row r="16" spans="1:2" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:2" s="5" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/kerangka berpikir.xlsx
+++ b/kerangka berpikir.xlsx
@@ -85,9 +85,6 @@
     <t>Sistem harus bisa mencatat aktivitas keuangan dan memproses menjadi laporan buku besar.</t>
   </si>
   <si>
-    <t>Harus ada aplikasi yang bisa membantu pencatatan aktivitas keuangan untuk meminimalkan kesalahan pencatatan dan menambah efisiensi waktu.</t>
-  </si>
-  <si>
     <t>1.</t>
   </si>
   <si>
@@ -104,6 +101,9 @@
   </si>
   <si>
     <t xml:space="preserve">Banyaknya kesalahan pada pengelompokan debit dan kredit. </t>
+  </si>
+  <si>
+    <t>Dihasilkan aplikasi yang bisa membantu pencatatan aktivitas keuangan untuk meminimalkan kesalahan pencatatan dan menambah efisiensi waktu.</t>
   </si>
 </sst>
 </file>
@@ -234,22 +234,22 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -776,8 +776,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:B5"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -788,17 +788,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
+      <c r="B1" s="9"/>
     </row>
     <row r="2" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -806,7 +806,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -814,34 +814,34 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="12"/>
-      <c r="B5" s="12"/>
+      <c r="A5" s="13"/>
+      <c r="B5" s="13"/>
     </row>
     <row r="6" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="8"/>
+      <c r="B6" s="9"/>
     </row>
     <row r="7" spans="1:2" ht="93.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="10"/>
+      <c r="A7" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="12"/>
     </row>
     <row r="8" spans="1:2" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="11"/>
-      <c r="B8" s="11"/>
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
     </row>
     <row r="9" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="8"/>
+      <c r="B9" s="9"/>
     </row>
     <row r="10" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
@@ -850,42 +850,42 @@
       <c r="B10" s="6"/>
     </row>
     <row r="11" spans="1:2" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="11"/>
-      <c r="B11" s="11"/>
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
     </row>
     <row r="12" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="8"/>
+      <c r="B12" s="9"/>
     </row>
     <row r="13" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="8"/>
+      <c r="B13" s="9"/>
     </row>
     <row r="14" spans="1:2" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="13"/>
-      <c r="B14" s="13"/>
+      <c r="A14" s="10"/>
+      <c r="B14" s="10"/>
     </row>
     <row r="15" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="8"/>
+      <c r="B15" s="9"/>
     </row>
     <row r="16" spans="1:2" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:2" s="5" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>10</v>
@@ -894,17 +894,17 @@
     <row r="18" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
